--- a/seat_306.xlsx
+++ b/seat_306.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YLC/Dropbox/Exam Kit 考試出題包/Code_for_Exam/1. masterTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YLC/SynologyDrive/My_App/1_Code_for_Exam/examprep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11414D13-D9FF-E14A-894A-C4CD17C0DB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368149C6-E65B-AF4B-BEDD-79768FEB0C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{4F6A518A-29C3-AB4C-B44C-CB78ED720905}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45540" windowHeight="23600" xr2:uid="{4F6A518A-29C3-AB4C-B44C-CB78ED720905}"/>
   </bookViews>
   <sheets>
     <sheet name="致德堂座號" sheetId="1" r:id="rId1"/>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D7E7FA-604D-394C-9758-6B02C73CE166}">
   <dimension ref="A1:A306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="I306" sqref="I306"/>
+    <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2323,487 +2323,487 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>20</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
@@ -2852,8 +2852,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A284">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B306">
+    <sortCondition ref="B1:B306"/>
+    <sortCondition ref="A1:A306"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
